--- a/xlsx_files/Waste-Connections.xlsx
+++ b/xlsx_files/Waste-Connections.xlsx
@@ -490,14 +490,6 @@
           <t>Helper</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:725.0
-Max:800.0
-type:weekly</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -573,14 +565,6 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>Customer Service Representative</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:37.02
-Max:37.02
-type:hourly</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -642,14 +626,6 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>Outbound Scale Cashier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:19.8
-Max:21.0
-type:hourly</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -721,14 +697,6 @@
           <t>Driver Helper</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:96.0
-Max:96.0
-type:daily</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -866,14 +834,6 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>Gate Clerk</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:23.0
-Max:24.0
-type:hourly</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1047,14 +1007,6 @@
           <t>Customer Service Representative</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:19.0
-Max:19.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -1112,14 +1064,6 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>Scale Clerk</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:16.5
-Max:16.5
-type:hourly</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1219,14 +1163,6 @@
           <t>General Laborer Helper</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:23.0
-Max:23.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -1283,14 +1219,6 @@
           <t>Class A Driver</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:35.44
-Max:35.44
-type:hourly</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -1431,14 +1359,6 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>Transfer Truck Driver - Weinberger</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:1400.0
-Max:1730.0
-type:weekly</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1857,14 +1777,6 @@
       <c r="D27" t="inlineStr">
         <is>
           <t>Customer Service Representative</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:22.0
-Max:22.0
-type:hourly</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1974,14 +1886,6 @@
           <t>Driver</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:25.0
-Max:-1.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2097,14 +2001,6 @@
           <t>Customer Service Representative</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:25.0
-Max:25.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2161,14 +2057,6 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>Heavy Equipment Operator</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:27.0
-Max:30.0
-type:hourly</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2245,14 +2133,6 @@
           <t>Shop Welder</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:22.0
-Max:25.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2398,14 +2278,6 @@
       <c r="D36" t="inlineStr">
         <is>
           <t>Customer Service Representative</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:19.0
-Max:-1.0
-type:hourly</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2518,14 +2390,6 @@
       <c r="D38" t="inlineStr">
         <is>
           <t>Fork Lift Operator</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:25.0
-Max:25.0
-type:hourly</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2597,14 +2461,6 @@
           <t>Lube Technician</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:25.0
-Max:31.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2798,14 +2654,6 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>Transfer Station Flagger</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:20.0
-Max:20.0
-type:hourly</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2873,14 +2721,6 @@
           <t>General Laborer</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:15.0
-Max:15.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -2951,14 +2791,6 @@
       <c r="D46" t="inlineStr">
         <is>
           <t>Transfer Truck Driver - Weinberger</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:1400.0
-Max:1730.0
-type:weekly</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3062,14 +2894,6 @@
           <t>Customer Service Representative</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:18.0
-Max:18.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -3124,14 +2948,6 @@
           <t>General Laborer</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:15.0
-Max:15.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -3354,14 +3170,6 @@
       <c r="D54" t="inlineStr">
         <is>
           <t>Laborer</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:15.0
-Max:15.0
-type:hourly</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3473,14 +3281,6 @@
       <c r="D56" t="inlineStr">
         <is>
           <t>Driver</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:25.0
-Max:-1.0
-type:hourly</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3738,14 +3538,6 @@
           <t>Driver Helper</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:17.0
-Max:17.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -3956,14 +3748,6 @@
           <t>Customer Service Representative</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:16.0
-Max:16.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -4018,14 +3802,6 @@
       <c r="D66" t="inlineStr">
         <is>
           <t>Laborer</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:18.0
-Max:18.0
-type:hourly</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4209,14 +3985,6 @@
           <t>Customer Service Representative</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:18.0
-Max:18.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -4367,14 +4135,6 @@
       <c r="D72" t="inlineStr">
         <is>
           <t>Customer Service Representative</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:18.0
-Max:18.75
-type:hourly</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4655,14 +4415,6 @@
       <c r="D77" t="inlineStr">
         <is>
           <t>Customer Service Representative</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:19.0
-Max:20.0
-type:hourly</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4797,14 +4549,6 @@
           <t>Laborer</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:17.0
-Max:17.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -5167,14 +4911,6 @@
           <t>Sorter</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:17.0
-Max:17.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -5214,14 +4950,6 @@
       <c r="D87" t="inlineStr">
         <is>
           <t>Preventative Maitenance Mechanic</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:7500.0
-Max:7500.0
-type:monthly</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5282,14 +5010,6 @@
           <t>CDL Driver</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:39.24
-Max:39.24
-type:hourly</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -5498,14 +5218,6 @@
           <t>Container Delivery Driver</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:19.0
-Max:19.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -5560,14 +5272,6 @@
           <t>CDL Driver</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:18.0
-Max:18.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -5607,14 +5311,6 @@
       <c r="D94" t="inlineStr">
         <is>
           <t>Class A Driver</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:35.44
-Max:35.44
-type:hourly</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5789,14 +5485,6 @@
       <c r="D97" t="inlineStr">
         <is>
           <t>Transfer Station Scale House Cashier</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:18.5
-Max:18.5
-type:hourly</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5874,14 +5562,6 @@
           <t>Financial Analyst</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[USD]
-Min:85000.0
-Max:95000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -6153,14 +5833,6 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>Eboueur</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:23.83
-Max:23.83
-type:hourly</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6228,14 +5900,6 @@
           <t>Labourer</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:17.23
-Max:17.23
-type:hourly</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -6285,14 +5949,6 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>Landfill Attendant/Labourer</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:17.43
-Max:17.43
-type:hourly</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6462,14 +6118,6 @@
           <t>General Labourer/Sorter</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:18.78
-Max:18.78
-type:hourly</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -6518,14 +6166,6 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>Journalier(ère)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:16.5
-Max:16.5
-type:hourly</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6959,14 +6599,6 @@
           <t>Garbage Truck Driver</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:23.25
-Max:23.25
-type:hourly</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -7122,14 +6754,6 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>Aide mechanic</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:25.0
-Max:25.0
-type:hourly</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -7223,14 +6847,6 @@
           <t>Class 3 Garbage Truck Driver (Commercial)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:33.94
-Max:33.94
-type:hourly</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -7534,14 +7150,6 @@
           <t>Garbage Truck Driver</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:28.98
-Max:28.98
-type:hourly</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -7592,14 +7200,6 @@
           <t>DZ Driver Helper</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.19
-Max:24.19
-type:hourly</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -7648,14 +7248,6 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>Class 3 Garbage Truck Driver</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:30.52
-Max:30.52
-type:hourly</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -7711,14 +7303,6 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>Scale Attendant/Laborer</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:19.5
-Max:19.5
-type:hourly</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -7944,14 +7528,6 @@
           <t>DZ Swing Driver</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:31.87
-Max:31.87
-type:hourly</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -8115,14 +7691,6 @@
           <t>Class 3 Spare Garbage Truck Driver</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:25.0
-Max:25.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -8174,14 +7742,6 @@
       <c r="D37" t="inlineStr">
         <is>
           <t>Driver Helper</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.19
-Max:24.19
-type:hourly</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8342,14 +7902,6 @@
           <t>Chauffeur Opérateur CL 3</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.0
-Max:25.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -8473,14 +8025,6 @@
           <t>Roll Off Truck Driver</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.0
-Max:28.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -8580,14 +8124,6 @@
           <t>Garbage Truck Driver</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:28.98
-Max:28.98
-type:hourly</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -8636,14 +8172,6 @@
       <c r="D45" t="inlineStr">
         <is>
           <t>Class 3 Garbage Truck Driver</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:27.79
-Max:27.79
-type:hourly</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -9007,14 +8535,6 @@
           <t>Chauffeur/Opérateur CL 3F</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:23.0
-Max:23.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -9146,14 +8666,6 @@
           <t>DZ Garbage Truck Driver</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.52
-Max:24.52
-type:hourly</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -9200,14 +8712,6 @@
       <c r="D54" t="inlineStr">
         <is>
           <t>Class 3 Garbage Truck Driver</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:30.52
-Max:30.52
-type:hourly</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9480,14 +8984,6 @@
           <t>General Labourer- Class 5 License</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:18.0
-Max:18.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -9535,14 +9031,6 @@
       <c r="D60" t="inlineStr">
         <is>
           <t>DZ Swing Driver</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:31.87
-Max:31.87
-type:hourly</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -9771,14 +9259,6 @@
           <t>$3000 Signing Bonus! - Class 3 Garbage Truck Driver (Residential)</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:27.47
-Max:27.47
-type:hourly</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -9935,14 +9415,6 @@
       <c r="D67" t="inlineStr">
         <is>
           <t>Trieurs (Extérieure et Intérieur)</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:16.5
-Max:17.15
-type:hourly</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -10063,14 +9535,6 @@
           <t>Agent de cours</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:22.5
-Max:22.5
-type:hourly</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -10138,14 +9602,6 @@
           <t>Class 3 Spare Garbage Truck Driver</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:25.0
-Max:25.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -10323,14 +9779,6 @@
           <t>Class 3 Garbage Truck Driver (Commercial)</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:33.94
-Max:33.94
-type:hourly</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -10383,14 +9831,6 @@
       <c r="D74" t="inlineStr">
         <is>
           <t>DZ Driver</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.62
-Max:24.62
-type:hourly</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -10510,14 +9950,6 @@
           <t>Chauffeur/Opérateur CL 3F</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.33
-Max:24.33
-type:hourly</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -10641,14 +10073,6 @@
           <t>Heavy Duty Mechanic</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:40.0
-Max:40.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -10706,14 +10130,6 @@
       <c r="D79" t="inlineStr">
         <is>
           <t>Commis aux pieces</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.0
-Max:24.0
-type:hourly</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -10837,14 +10253,6 @@
           <t>Chauffeur class 3F-Commercial</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:26.5
-Max:26.5
-type:hourly</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -10897,14 +10305,6 @@
       <c r="D82" t="inlineStr">
         <is>
           <t>Class 3 Garbage Truck Driver</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:27.79
-Max:27.79
-type:hourly</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -11085,14 +10485,6 @@
           <t>Heavy Duty Mechanic</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:44.66
-Max:44.66
-type:hourly</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -11208,14 +10600,6 @@
           <t>Class 3 Garbage Truck Driver - $25.58 per hour</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:25.58
-Max:25.58
-type:hourly</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -11323,14 +10707,6 @@
       <c r="D89" t="inlineStr">
         <is>
           <t>Comptable de District</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:50000.0
-Max:55000.0
-type:yearly</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -11397,14 +10773,6 @@
       <c r="D90" t="inlineStr">
         <is>
           <t>DZ Garbage Truck Driver</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.52
-Max:24.52
-type:hourly</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -11533,14 +10901,6 @@
           <t>Class 3 Garbage Truck Driver - $25.58 per hour</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:25.58
-Max:25.58
-type:hourly</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -11595,14 +10955,6 @@
           <t>Roll Off Truck Driver</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:24.0
-Max:28.0
-type:hourly</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -11648,14 +11000,6 @@
       <c r="D94" t="inlineStr">
         <is>
           <t>Class 3 Garbage Truck Driver - $25.58 per hour</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:25.58
-Max:25.58
-type:hourly</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -11712,14 +11056,6 @@
           <t>Heavy Duty Mechanic</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:39.26
-Max:39.26
-type:hourly</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
           <t xml:space="preserve">
@@ -11821,14 +11157,6 @@
       <c r="D97" t="inlineStr">
         <is>
           <t>310T Mechanic</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:44.06
-Max:44.06
-type:hourly</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -12047,14 +11375,6 @@
           <t>Diesel Mechanic - 310T</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[CAD]
-Min:39.21
-Max:39.21
-type:hourly</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
           <t xml:space="preserve">
